--- a/CA_data/LC/Epct1/2021-22/11+GLENN.xlsx
+++ b/CA_data/LC/Epct1/2021-22/11+GLENN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>Glenn CountyLanguage Group Data - Countywidefor  2021 - 22</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Tongan</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
   </si>
   <si>
     <t>Urdu</t>
@@ -590,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,19 +627,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -644,19 +647,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -664,16 +667,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -681,16 +684,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -698,16 +701,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -715,16 +718,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -732,16 +735,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -749,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -763,16 +766,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -780,16 +783,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -797,16 +800,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -814,13 +817,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -828,13 +831,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -842,13 +845,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -856,13 +859,13 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -870,13 +873,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -884,12 +887,12 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="F19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -897,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -905,7 +908,7 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -913,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -921,7 +924,7 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -929,7 +932,7 @@
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -937,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -945,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -953,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -961,25 +964,13 @@
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
       <c r="F29" t="s">
         <v>70</v>
       </c>
@@ -1002,6 +993,26 @@
       </c>
       <c r="F30" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
